--- a/src/test/java/com/pack/testData/EmployeeAvailability.xlsx
+++ b/src/test/java/com/pack/testData/EmployeeAvailability.xlsx
@@ -259,6 +259,9 @@
   </si>
   <si>
     <t>Blanchard, Tasha</t>
+  </si>
+  <si>
+    <t>//ul[@role='tree']/li[1]/ul/li[1]/span[2]/span[1]</t>
   </si>
 </sst>
 </file>
@@ -662,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="M1">
-      <selection activeCell="P3" sqref="P3" activeCellId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="H1">
+      <selection activeCell="O3" sqref="O3" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -913,7 +916,7 @@
         <v>30</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>75</v>
